--- a/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (鷲﨑大成).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
   <si>
     <t>氏名</t>
   </si>
@@ -235,6 +235,9 @@
     <t>お疲れ様でした。基本設計書の一回目レビューで指摘された点をしっかり修正し、バーチャルレビューを活用して遅れを取り戻せることを期待します。</t>
   </si>
   <si>
+    <t>基本設計の修正（授業時間外）</t>
+  </si>
+  <si>
     <t>基本設計の修正</t>
   </si>
   <si>
@@ -258,7 +261,7 @@
     <t>お疲れ様でした。ますます作業が増えていて、役割分担を意識しながら頑張ってください。</t>
   </si>
   <si>
-    <t>基本設計の修正変更</t>
+    <t>基本設計の修正変更（授業時間外）</t>
   </si>
   <si>
     <t>進捗会議</t>
@@ -269,6 +272,19 @@
   <si>
     <t>先週の火曜日、木曜日、金曜日に基本設計の修正を行いました。
 今週の火曜日までに基本設計の修正を完了し、テスト仕様を確認します。</t>
+  </si>
+  <si>
+    <t>今後の作業に向けて役割分担ができ、大変とはいえ作業が見えてきたので少し安心しています。
+今週は予定がいっぱいですがなんとか基本設計を完成させ、テスト仕様を一発OKもらえればと思います。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計の修正が終わり次第、実装に回ってください。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。納期まで時間がないので、他の人と協力して実装やテスト設計を進めてください。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。実装の段階では、画面のデザインより機能を優先してください。QCDを常に意識してください。</t>
   </si>
 </sst>
 </file>
@@ -536,10 +552,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2107,14 +2123,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2342,7 +2358,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -3366,14 +3382,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3601,7 +3617,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -4625,14 +4641,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4860,7 +4876,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -12401,7 +12417,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -12467,7 +12483,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="13">
-        <v>70.0</v>
+        <v>180.0</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -12503,7 +12519,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="13">
         <v>30.0</v>
@@ -12516,7 +12532,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13">
         <v>60.0</v>
@@ -12573,7 +12589,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -12606,7 +12622,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -12618,7 +12634,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -12629,7 +12645,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -12647,7 +12663,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -13697,7 +13713,7 @@
       </c>
       <c r="C4" s="8">
         <f>SUM(C6:C15)</f>
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -13760,10 +13776,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13">
-        <v>210.0</v>
+        <v>540.0</v>
       </c>
       <c r="D6" s="37">
         <v>1.0</v>
@@ -13794,7 +13810,7 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13">
         <v>20.0</v>
@@ -13811,7 +13827,7 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="13">
         <v>120.0</v>
@@ -13828,7 +13844,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13">
         <v>30.0</v>
@@ -13890,7 +13906,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -13922,17 +13938,21 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -13941,7 +13961,9 @@
       <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -13957,7 +13979,9 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -14981,14 +15005,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -15216,7 +15240,7 @@
       <c r="A24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
